--- a/prototypes/second_iteration/budget.xlsx
+++ b/prototypes/second_iteration/budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\diy-ventilator\prototypes\second_iteration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906D766F-C169-4DCF-87B9-31677B7A8A9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1D1552-A9AE-4917-A0F1-62E840CA5178}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{98A0F2A8-A92E-4AD8-8DB8-2CF3193E3003}"/>
   </bookViews>
@@ -140,12 +140,6 @@
     <t>SODIAL®</t>
   </si>
   <si>
-    <t>9CR0612H001</t>
-  </si>
-  <si>
-    <t>Sanyo Denki America</t>
-  </si>
-  <si>
     <t>Wires + Misc</t>
   </si>
   <si>
@@ -168,6 +162,12 @@
   </si>
   <si>
     <t>Approximate Weight (kg)</t>
+  </si>
+  <si>
+    <t>STEADY MOTOR</t>
+  </si>
+  <si>
+    <t>WM7040-24V</t>
   </si>
 </sst>
 </file>
@@ -312,6 +312,27 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -369,27 +390,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -404,15 +404,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C29CA1C1-CAE2-48E7-B815-07AF7CC4E533}" name="Table1" displayName="Table1" ref="A4:F15" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C29CA1C1-CAE2-48E7-B815-07AF7CC4E533}" name="Table1" displayName="Table1" ref="A4:F15" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A4:F15" xr:uid="{FFE9C588-F5B8-4752-B8B6-0A2DF7F3324C}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{723464C2-6E89-4A12-BE88-1DDD9DCF4367}" name="Part Name"/>
     <tableColumn id="2" xr3:uid="{DECAF936-EC34-4D3D-879D-8427B61A9850}" name="Manufacturer"/>
     <tableColumn id="3" xr3:uid="{385A877C-9A07-46EA-BD46-419D8E9E1A4A}" name="Part Number"/>
-    <tableColumn id="4" xr3:uid="{1403C813-B548-450C-B6DB-0F49D44DD949}" name="Price" dataDxfId="5" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{1403C813-B548-450C-B6DB-0F49D44DD949}" name="Price" dataDxfId="4" dataCellStyle="Currency"/>
     <tableColumn id="5" xr3:uid="{8CD5C559-1966-46D1-9DFE-692C76C652FA}" name="Quantity Needed"/>
-    <tableColumn id="6" xr3:uid="{FF5F3308-AE9E-4259-B8F9-1EB3C5A8E05A}" name="Total" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{FF5F3308-AE9E-4259-B8F9-1EB3C5A8E05A}" name="Total" dataDxfId="3">
       <calculatedColumnFormula>D5*E5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -421,15 +421,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0F845197-75B7-4D83-BCC7-45B7CDA2BE27}" name="Table3" displayName="Table3" ref="A18:F21" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0F845197-75B7-4D83-BCC7-45B7CDA2BE27}" name="Table3" displayName="Table3" ref="A18:F21" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A18:F21" xr:uid="{8063FF08-10E2-4AFB-AC6B-74F1C1A116FC}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{34287877-A948-4F8D-9E03-49F7ABAF4ADC}" name="Part Name"/>
     <tableColumn id="2" xr3:uid="{8C94812D-66FE-4A53-814A-4B76BB88F5DD}" name="Manufacturer"/>
     <tableColumn id="3" xr3:uid="{51E18B0D-6634-47E9-8328-B85C92558A71}" name="Part Number"/>
-    <tableColumn id="4" xr3:uid="{FEDAC801-F9E4-478E-B97B-02A544C9D39A}" name="Avg Filament Price (per kg)" dataDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{FEDAC801-F9E4-478E-B97B-02A544C9D39A}" name="Avg Filament Price (per kg)" dataDxfId="1" dataCellStyle="Currency"/>
     <tableColumn id="5" xr3:uid="{89E59625-C494-4C7B-982B-DAE10E744E2E}" name="Approximate Weight (kg)"/>
-    <tableColumn id="6" xr3:uid="{A7651E66-5913-444D-A18B-E5B215FC40F6}" name="Total" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{A7651E66-5913-444D-A18B-E5B215FC40F6}" name="Total" dataDxfId="0">
       <calculatedColumnFormula>D19*E19</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -737,7 +737,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F1" s="9">
         <f xml:space="preserve"> SUM(F5:F22)</f>
@@ -835,10 +835,10 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2">
         <v>45</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2">
         <v>20</v>
@@ -1011,10 +1011,10 @@
         <v>9</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>17</v>
@@ -1025,10 +1025,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2">
         <v>25</v>
@@ -1046,10 +1046,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
         <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
       </c>
       <c r="D20" s="2">
         <v>25</v>
@@ -1067,10 +1067,10 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2">
         <v>25</v>

--- a/prototypes/second_iteration/budget.xlsx
+++ b/prototypes/second_iteration/budget.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28810"/>
+  <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\diy-ventilator\prototypes\second_iteration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marina/diy-ventilator/prototypes/second_iteration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1D1552-A9AE-4917-A0F1-62E840CA5178}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{98A0F2A8-A92E-4AD8-8DB8-2CF3193E3003}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>DIY-Ventilator</t>
   </si>
@@ -44,9 +49,6 @@
     <t>Proximal Flow Sensor</t>
   </si>
   <si>
-    <t>Low Pressure Regulator</t>
-  </si>
-  <si>
     <t>Manufacturer</t>
   </si>
   <si>
@@ -59,9 +61,6 @@
     <t>SFM3300-AW</t>
   </si>
   <si>
-    <t xml:space="preserve">OEM-EP </t>
-  </si>
-  <si>
     <t>Part Number</t>
   </si>
   <si>
@@ -74,18 +73,9 @@
     <t>Parts to Print</t>
   </si>
   <si>
-    <t>Fan Blower</t>
-  </si>
-  <si>
     <t>Arduino Board</t>
   </si>
   <si>
-    <t>Bluettoth Module</t>
-  </si>
-  <si>
-    <t>Emergency Stop Button</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -95,18 +85,6 @@
     <t>Immersion Heater</t>
   </si>
   <si>
-    <t>Standrard Mask</t>
-  </si>
-  <si>
-    <t>Standrard Tube</t>
-  </si>
-  <si>
-    <t>Pressure Chamber</t>
-  </si>
-  <si>
-    <t>Belnder Chamber</t>
-  </si>
-  <si>
     <t>Humidifier Chamber</t>
   </si>
   <si>
@@ -137,49 +115,143 @@
     <t>Arduino</t>
   </si>
   <si>
-    <t>SODIAL®</t>
-  </si>
-  <si>
-    <t>Wires + Misc</t>
-  </si>
-  <si>
     <t>Avg Filament Price (per kg)</t>
   </si>
   <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>pressure_chamber</t>
-  </si>
-  <si>
-    <t>blender_chamber</t>
-  </si>
-  <si>
-    <t>humidifier chamber</t>
-  </si>
-  <si>
     <t>Total Budget</t>
   </si>
   <si>
     <t>Approximate Weight (kg)</t>
   </si>
   <si>
-    <t>STEADY MOTOR</t>
-  </si>
-  <si>
-    <t>WM7040-24V</t>
+    <t xml:space="preserve">Atomizer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEEP Valve </t>
+  </si>
+  <si>
+    <t>AMBU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Compressor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precision Medical Inc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEPA Filter Chamber </t>
+  </si>
+  <si>
+    <t>01RO01003-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxygen Regulator </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O-Two </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxygen/Air Blender </t>
+  </si>
+  <si>
+    <t>Maxtec</t>
+  </si>
+  <si>
+    <t>R223P08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tube </t>
+  </si>
+  <si>
+    <t>RedMed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User </t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Bluetooth Module</t>
+  </si>
+  <si>
+    <t>HEPA Filter Paper</t>
+  </si>
+  <si>
+    <t>Pressure Reducing Valve</t>
+  </si>
+  <si>
+    <t>Pressure OEM-EP</t>
+  </si>
+  <si>
+    <t>Gikfun</t>
+  </si>
+  <si>
+    <t> EK1868</t>
+  </si>
+  <si>
+    <t>PM 15</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>AG36855-6-CDCPF</t>
+  </si>
+  <si>
+    <t>RedMEd</t>
+  </si>
+  <si>
+    <t>Dependant on Individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approx. 140 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mask</t>
+  </si>
+  <si>
+    <t>D4-177</t>
+  </si>
+  <si>
+    <t>Pneumatic Plus</t>
+  </si>
+  <si>
+    <t>PPR2-N02BG</t>
+  </si>
+  <si>
+    <t>RICO SUCTION LABS</t>
+  </si>
+  <si>
+    <t>2048P</t>
+  </si>
+  <si>
+    <t>Y-Piece and Non-return Valve</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -223,6 +295,62 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF111111"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -237,7 +365,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -280,37 +408,240 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF8EA9DB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8EA9DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="5"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="4"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="4"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="90">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="3" builtinId="16"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="4" builtinId="21"/>
     <cellStyle name="Title" xfId="2" builtinId="15"/>
     <cellStyle name="Total" xfId="5" builtinId="25"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -328,7 +659,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -346,7 +676,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -368,9 +697,11 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -386,7 +717,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -404,15 +734,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C29CA1C1-CAE2-48E7-B815-07AF7CC4E533}" name="Table1" displayName="Table1" ref="A4:F15" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A4:F15" xr:uid="{FFE9C588-F5B8-4752-B8B6-0A2DF7F3324C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:F25" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A4:F25"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{723464C2-6E89-4A12-BE88-1DDD9DCF4367}" name="Part Name"/>
-    <tableColumn id="2" xr3:uid="{DECAF936-EC34-4D3D-879D-8427B61A9850}" name="Manufacturer"/>
-    <tableColumn id="3" xr3:uid="{385A877C-9A07-46EA-BD46-419D8E9E1A4A}" name="Part Number"/>
-    <tableColumn id="4" xr3:uid="{1403C813-B548-450C-B6DB-0F49D44DD949}" name="Price" dataDxfId="4" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{8CD5C559-1966-46D1-9DFE-692C76C652FA}" name="Quantity Needed"/>
-    <tableColumn id="6" xr3:uid="{FF5F3308-AE9E-4259-B8F9-1EB3C5A8E05A}" name="Total" dataDxfId="3">
+    <tableColumn id="1" name="Part Name"/>
+    <tableColumn id="2" name="Manufacturer"/>
+    <tableColumn id="3" name="Part Number" dataDxfId="6"/>
+    <tableColumn id="4" name="Price" dataDxfId="5" dataCellStyle="Currency"/>
+    <tableColumn id="5" name="Quantity Needed"/>
+    <tableColumn id="6" name="Total" dataDxfId="4">
       <calculatedColumnFormula>D5*E5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -421,17 +751,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0F845197-75B7-4D83-BCC7-45B7CDA2BE27}" name="Table3" displayName="Table3" ref="A18:F21" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A18:F21" xr:uid="{8063FF08-10E2-4AFB-AC6B-74F1C1A116FC}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{34287877-A948-4F8D-9E03-49F7ABAF4ADC}" name="Part Name"/>
-    <tableColumn id="2" xr3:uid="{8C94812D-66FE-4A53-814A-4B76BB88F5DD}" name="Manufacturer"/>
-    <tableColumn id="3" xr3:uid="{51E18B0D-6634-47E9-8328-B85C92558A71}" name="Part Number"/>
-    <tableColumn id="4" xr3:uid="{FEDAC801-F9E4-478E-B97B-02A544C9D39A}" name="Avg Filament Price (per kg)" dataDxfId="1" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{89E59625-C494-4C7B-982B-DAE10E744E2E}" name="Approximate Weight (kg)"/>
-    <tableColumn id="6" xr3:uid="{A7651E66-5913-444D-A18B-E5B215FC40F6}" name="Total" dataDxfId="0">
-      <calculatedColumnFormula>D19*E19</calculatedColumnFormula>
-    </tableColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A30:G34" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A30:G34"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Part Name"/>
+    <tableColumn id="2" name="Manufacturer"/>
+    <tableColumn id="3" name="Part Number"/>
+    <tableColumn id="4" name="Avg Filament Price (per kg)" dataDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="5" name="Approximate Weight (kg)"/>
+    <tableColumn id="6" name="Quantity" dataDxfId="1"/>
+    <tableColumn id="7" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -733,357 +1062,497 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FDC9FE-5493-4694-96A5-FE13E86F4CE8}">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="9">
-        <f xml:space="preserve"> SUM(F5:F22)</f>
-        <v>900.5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="14">
+        <f xml:space="preserve"> SUM(F5:F20)</f>
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
+      <c r="C5" s="15" t="s">
+        <v>6</v>
       </c>
       <c r="D5" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" s="3">
         <f>D5*E5</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>2</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <f>D6*E6</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <f>D7*E7</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <f>D8*E8</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <f>D9*E9</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" ref="F11:F19" si="0">D11*E11</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="10">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="2">
+        <v>550</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2">
+        <v>110</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="2">
         <v>300</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" ref="F6:F15" si="0">D6*E6</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="2">
-        <v>45</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="B16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="17">
+        <v>14999</v>
+      </c>
+      <c r="D16" s="2">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="2">
         <v>12</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="2">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="2">
+        <v>150</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="2">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C21" s="15"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C22" s="15"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C23" s="15"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C24" s="15"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C25" s="15"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="29" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="2">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2">
-        <v>6</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="2">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="F30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="2">
         <v>25</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="E32">
+        <v>0.1</v>
+      </c>
+      <c r="F32" s="12">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="2">
         <v>25</v>
       </c>
-      <c r="E19">
+      <c r="E33">
         <v>0.2</v>
       </c>
-      <c r="F19" s="3">
-        <f>D19*E19</f>
+      <c r="F33" s="12">
+        <v>2</v>
+      </c>
+      <c r="G33" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="2">
-        <v>25</v>
-      </c>
-      <c r="E20">
-        <v>0.2</v>
-      </c>
-      <c r="F20" s="3">
-        <f t="shared" ref="F20:F21" si="1">D20*E20</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="2">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>0.1</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F34" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="2">
